--- a/Tables/table_for_params.xlsx
+++ b/Tables/table_for_params.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -55,6 +55,9 @@
     <t xml:space="preserve">sub_index</t>
   </si>
   <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
     <t xml:space="preserve">скорость ПП колеса</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t xml:space="preserve">об/мин</t>
   </si>
   <si>
+    <t xml:space="preserve">SIGNED32</t>
+  </si>
+  <si>
     <t xml:space="preserve">скорость ПЛ колеса</t>
   </si>
   <si>
@@ -143,6 +149,9 @@
   </si>
   <si>
     <t xml:space="preserve">0x5b2106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNED16</t>
   </si>
   <si>
     <t xml:space="preserve">ток рейки перед</t>
@@ -292,10 +301,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P8" activeCellId="0" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -303,10 +312,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="4" style="0" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="0" width="7.36"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="8" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -343,20 +353,23 @@
       <c r="L1" s="0" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M1" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="0" t="n">
         <f aca="false">16777216/H2</f>
         <v>186413.511111111</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>90</v>
@@ -370,20 +383,23 @@
       <c r="L2" s="0" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M2" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="0" t="n">
         <f aca="false">16777216/H3</f>
         <v>186413.511111111</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>90</v>
@@ -397,20 +413,23 @@
       <c r="L3" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M3" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="0" t="n">
         <f aca="false">16777216/H4</f>
         <v>186413.511111111</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>90</v>
@@ -424,20 +443,23 @@
       <c r="L4" s="0" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M4" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" s="0" t="n">
         <f aca="false">16777216/H5</f>
         <v>186413.511111111</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>90</v>
@@ -451,20 +473,23 @@
       <c r="L5" s="0" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" s="0" t="n">
         <f aca="false">16777216/H6</f>
         <v>167772.16</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>100</v>
@@ -478,20 +503,23 @@
       <c r="L6" s="0" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M6" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" s="0" t="n">
         <f aca="false">16777216/H7</f>
         <v>167772.16</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>100</v>
@@ -505,20 +533,23 @@
       <c r="L7" s="0" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M7" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" s="0" t="n">
         <f aca="false">16777216/H8</f>
         <v>25811.1015384615</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>650</v>
@@ -532,20 +563,23 @@
       <c r="L8" s="0" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M8" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9" s="0" t="n">
         <f aca="false">16777216/H9</f>
         <v>479349.028571429</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>35</v>
@@ -559,20 +593,23 @@
       <c r="L9" s="0" t="n">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M9" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" s="0" t="n">
         <f aca="false">16777216/H10</f>
         <v>838860.8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>20</v>
@@ -586,20 +623,23 @@
       <c r="L10" s="0" t="n">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M10" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" s="0" t="n">
         <f aca="false">16777216/H11</f>
         <v>838860.8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>20</v>
@@ -613,20 +653,23 @@
       <c r="L11" s="0" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M11" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">16777216/H12</f>
         <v>2097.152</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>8000</v>
@@ -640,20 +683,23 @@
       <c r="L12" s="0" t="n">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M12" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">16777216/H13</f>
         <v>16777216</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1</v>
@@ -667,13 +713,16 @@
       <c r="L13" s="0" t="n">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M13" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0</v>
@@ -687,16 +736,19 @@
       <c r="L14" s="0" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M14" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0</v>
@@ -710,16 +762,19 @@
       <c r="L15" s="0" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M15" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0</v>
@@ -733,13 +788,16 @@
       <c r="L16" s="0" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M16" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0</v>
@@ -753,16 +811,19 @@
       <c r="L17" s="0" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M17" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0</v>
@@ -776,16 +837,19 @@
       <c r="L18" s="0" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M18" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0</v>
@@ -799,20 +863,23 @@
       <c r="L19" s="0" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M19" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D20" s="0" t="n">
         <f aca="false">16777216/H20</f>
         <v>31068.9185185185</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>540</v>
@@ -826,20 +893,23 @@
       <c r="L20" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M20" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D21" s="0" t="n">
         <f aca="false">16777216/H21</f>
         <v>83886.08</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>200</v>
@@ -852,6 +922,9 @@
       </c>
       <c r="L21" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
